--- a/spliced/falling/2023-03-25_18-03-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.293112953041876</v>
+        <v>-0.06746154287180267</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7586058728223629</v>
+        <v>0.03214145534087062</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.201892187429029</v>
+        <v>-0.9956535080144557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.076085335986568</v>
+        <v>0.2888078393284657</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3218408019043786</v>
+        <v>0.04184071745636832</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.197818033223937</v>
+        <v>-1.758943790613218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.466690946456983</v>
+        <v>1.293112953041876</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5813377291657031</v>
+        <v>-0.7586058728223629</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9997129280899739</v>
+        <v>-2.201892187429029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.411398765652687</v>
+        <v>1.076085335986568</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.482220122980524</v>
+        <v>-0.3218408019043786</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.045610698849662</v>
+        <v>-1.197818033223937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08928575072178435</v>
+        <v>1.466690946456983</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.550635254660315</v>
+        <v>-0.5813377291657031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06088052863297655</v>
+        <v>-0.9997129280899739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9927981232487877</v>
+        <v>4.411398765652687</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.707755399304766</v>
+        <v>-4.482220122980524</v>
       </c>
       <c r="C7" t="n">
-        <v>1.41453302322432</v>
+        <v>-3.045610698849662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.431215341007984</v>
+        <v>0.08928575072178435</v>
       </c>
       <c r="B8" t="n">
-        <v>1.645354886387669</v>
+        <v>-1.550635254660315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273621466270713</v>
+        <v>0.06088052863297655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2498580986677279</v>
+        <v>-0.9927981232487877</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9151578448539578</v>
+        <v>-1.707755399304766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4712292718332862</v>
+        <v>1.41453302322432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04947298288691901</v>
+        <v>2.431215341007984</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4319243583568316</v>
+        <v>1.645354886387669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3634221997371941</v>
+        <v>0.273621466270713</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5032464119410757</v>
+        <v>0.2498580986677279</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05431018042009644</v>
+        <v>0.9151578448539578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3147802685582363</v>
+        <v>0.4712292718332862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8943670974221336</v>
+        <v>0.04947298288691901</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.390350583680838</v>
+        <v>0.4319243583568316</v>
       </c>
       <c r="C12" t="n">
-        <v>2.061716448429016</v>
+        <v>0.3634221997371941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.08820253887841945</v>
+        <v>-0.5032464119410757</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5515473787347926</v>
+        <v>-0.05431018042009644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8748975694179519</v>
+        <v>0.3147802685582363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2351689076181083</v>
+        <v>-0.8943670974221336</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.03523484912029523</v>
+        <v>-1.390350583680838</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06333464960199484</v>
+        <v>2.061716448429016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.005455169480207168</v>
+        <v>0.08820253887841945</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.04037748242533482</v>
+        <v>-0.5515473787347926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09177540264330601</v>
+        <v>0.8748975694179519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.03705323929356984</v>
+        <v>0.2351689076181083</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.02731135879578294</v>
+        <v>-0.03523484912029523</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08058094122815343</v>
+        <v>0.06333464960199484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.03103692665003059</v>
+        <v>-0.005455169480207168</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001527163070128304</v>
+        <v>-0.04037748242533482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01256180448500908</v>
+        <v>0.09177540264330601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.01491292483758091</v>
+        <v>-0.03705323929356984</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00055048926625147</v>
+        <v>-0.02731135879578294</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0008630249216113467</v>
+        <v>0.08058094122815343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02735042602343611</v>
+        <v>-0.03103692665003059</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0430127267920694</v>
+        <v>0.001527163070128304</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02982940334220257</v>
+        <v>0.01256180448500908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02472228522217548</v>
+        <v>-0.01491292483758091</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03295831200341841</v>
+        <v>-0.00055048926625147</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03895686653464332</v>
+        <v>-0.0008630249216113467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02063801200237381</v>
+        <v>0.02735042602343611</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03524550544314599</v>
+        <v>-0.0430127267920694</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04112330546905821</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.01983181198755671</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.03044381999778897</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.04586461641240953</v>
+        <v>-0.02982940334220257</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.06746154287180267</v>
+        <v>0.005824529005452867</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03214145534087062</v>
+        <v>-0.004876267489825652</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9956535080144557</v>
+        <v>0.009258870057068522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2888078393284657</v>
+        <v>0.01996676961696429</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04184071745636832</v>
+        <v>-0.05454103202494082</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.758943790613218</v>
+        <v>-0.001441926153939801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.293112953041876</v>
+        <v>-0.02569185483247746</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7586058728223629</v>
+        <v>-0.01999163068830969</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.201892187429029</v>
+        <v>-0.009539442396787617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.076085335986568</v>
+        <v>0.03522419491999366</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3218408019043786</v>
+        <v>0.005352173823603298</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.197818033223937</v>
+        <v>-0.01602810922317025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.466690946456983</v>
+        <v>-0.01577594932601883</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5813377291657031</v>
+        <v>0.060614168860538</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9997129280899739</v>
+        <v>-0.009635333469960495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.411398765652687</v>
+        <v>-0.03060719080615873</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.482220122980524</v>
+        <v>0.2389583984433218</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.045610698849662</v>
+        <v>-0.11525819691028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08928575072178435</v>
+        <v>-0.02314895105569856</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.550635254660315</v>
+        <v>0.2151985930842024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06088052863297655</v>
+        <v>-0.08631312587233481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9927981232487877</v>
+        <v>-0.06812567826966884</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.707755399304766</v>
+        <v>0.2275579571723937</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41453302322432</v>
+        <v>-0.07889750547880346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.431215341007984</v>
+        <v>-0.1647382801355317</v>
       </c>
       <c r="B10" t="n">
-        <v>1.645354886387669</v>
+        <v>0.1269321128032929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.273621466270713</v>
+        <v>-0.3623354202786154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2498580986677279</v>
+        <v>-0.06746154287180267</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9151578448539578</v>
+        <v>0.03214145534087062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4712292718332862</v>
+        <v>-0.9956535080144557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04947298288691901</v>
+        <v>0.2888078393284657</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4319243583568316</v>
+        <v>0.04184071745636832</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3634221997371941</v>
+        <v>-1.758943790613218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5032464119410757</v>
+        <v>1.293112953041876</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05431018042009644</v>
+        <v>-0.7586058728223629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3147802685582363</v>
+        <v>-2.201892187429029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8943670974221336</v>
+        <v>1.076085335986568</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.390350583680838</v>
+        <v>-0.3218408019043786</v>
       </c>
       <c r="C14" t="n">
-        <v>2.061716448429016</v>
+        <v>-1.197818033223937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.08820253887841945</v>
+        <v>1.466690946456983</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5515473787347926</v>
+        <v>-0.5813377291657031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8748975694179519</v>
+        <v>-0.9997129280899739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2351689076181083</v>
+        <v>4.411398765652687</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.03523484912029523</v>
+        <v>-4.482220122980524</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06333464960199484</v>
+        <v>-3.045610698849662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.005455169480207168</v>
+        <v>0.08928575072178435</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.04037748242533482</v>
+        <v>-1.550635254660315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09177540264330601</v>
+        <v>0.06088052863297655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.03705323929356984</v>
+        <v>-0.9927981232487877</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02731135879578294</v>
+        <v>-1.707755399304766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08058094122815343</v>
+        <v>1.41453302322432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.03103692665003059</v>
+        <v>2.431215341007984</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001527163070128304</v>
+        <v>1.645354886387669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01256180448500908</v>
+        <v>0.273621466270713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.01491292483758091</v>
+        <v>0.2498580986677279</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00055048926625147</v>
+        <v>0.9151578448539578</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0008630249216113467</v>
+        <v>0.4712292718332862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.04947298288691901</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4319243583568316</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3634221997371941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.5032464119410757</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.05431018042009644</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3147802685582363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.8943670974221336</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.390350583680838</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.061716448429016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08820253887841945</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.5515473787347926</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8748975694179519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2351689076181083</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.03523484912029523</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06333464960199484</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.005455169480207168</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.04037748242533482</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09177540264330601</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.03705323929356984</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.02731135879578294</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.08058094122815343</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.03103692665003059</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001527163070128304</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01256180448500908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.01491292483758091</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.00055048926625147</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0008630249216113467</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.02735042602343611</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>-0.0430127267920694</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.02982940334220257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.02472228522217548</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.03295831200341841</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.03895686653464332</v>
       </c>
     </row>
   </sheetData>
